--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T13:47:48+00:00</t>
+    <t>2025-09-29T08:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:20:50+00:00</t>
+    <t>2025-09-29T14:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:52:40+00:00</t>
+    <t>2025-09-29T15:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T15:54:50+00:00</t>
+    <t>2025-10-01T07:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:41:07+00:00</t>
+    <t>2025-10-01T07:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:57:22+00:00</t>
+    <t>2025-10-01T09:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T09:25:52+00:00</t>
+    <t>2025-10-01T13:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-responsible.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:14:57+00:00</t>
+    <t>2025-10-01T16:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
